--- a/excel work rasna(1).xlsx
+++ b/excel work rasna(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="FINANCE FUNCTION" sheetId="15" r:id="rId15"/>
     <sheet name="DROPDOWN AND BARCODE" sheetId="16" r:id="rId16"/>
     <sheet name="MACROS" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="DATA TYPES" sheetId="18" r:id="rId18"/>
+    <sheet name="MAIL MERGE" sheetId="19" r:id="rId19"/>
+    <sheet name="PEOJECTS" sheetId="20" r:id="rId20"/>
+    <sheet name="STUDENT MARKSHEET" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="316">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform a mathematical calculations on statistical data and totaling long columns of numbers or determining percentages and averages
 </t>
@@ -908,9 +908,6 @@
     <t>pass /fail</t>
   </si>
   <si>
-    <t>GJ-OO2</t>
-  </si>
-  <si>
     <t>wilbur lepcha</t>
   </si>
   <si>
@@ -974,10 +971,85 @@
     <t>TOTAL ATTENDANCE</t>
   </si>
   <si>
-    <t>asdfadsfasdf</t>
-  </si>
-  <si>
-    <t>asdfasdfasdfadsf</t>
+    <t>mami</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>no mami</t>
+  </si>
+  <si>
+    <t>GJ-002</t>
+  </si>
+  <si>
+    <t>GJ-003</t>
+  </si>
+  <si>
+    <t>GJ-004</t>
+  </si>
+  <si>
+    <t>GJ-005</t>
+  </si>
+  <si>
+    <t>GJ-006</t>
+  </si>
+  <si>
+    <t>GJ-007</t>
+  </si>
+  <si>
+    <t>GJ-008</t>
+  </si>
+  <si>
+    <t>GJ-009</t>
+  </si>
+  <si>
+    <t>GJ-010</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>subba</t>
+  </si>
+  <si>
+    <t>limboo</t>
+  </si>
+  <si>
+    <t>rai</t>
+  </si>
+  <si>
+    <t>gurung</t>
+  </si>
+  <si>
+    <t>jan subba</t>
+  </si>
+  <si>
+    <t>feb limboo</t>
+  </si>
+  <si>
+    <t>mar rai</t>
+  </si>
+  <si>
+    <t>apr gurung</t>
+  </si>
+  <si>
+    <t>jun rai</t>
   </si>
 </sst>
 </file>
@@ -1161,15 +1233,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1257,23 +1330,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1286,6 +1350,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,10 +1444,12 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1469,24 +1544,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77821824"/>
-        <c:axId val="77823360"/>
+        <c:axId val="131348352"/>
+        <c:axId val="131349888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77821824"/>
+        <c:axId val="131348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77823360"/>
+        <c:crossAx val="131349888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77823360"/>
+        <c:axId val="131349888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1569,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77821824"/>
+        <c:crossAx val="131348352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,7 +1578,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3701,12 +3776,12 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="K15">
         <f>AVERAGEIF(H4:H8,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -3778,15 +3853,15 @@
         <f>VLOOKUP(A5,A9:D12,4,0)</f>
         <v>674539430</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -3796,13 +3871,13 @@
         <f>VLOOKUP(A6,A9:D12,2,0)</f>
         <v>per@gmail.com</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -3812,13 +3887,13 @@
         <f>VLOOKUP(A7,A9:D12,3,0)</f>
         <v>tadong</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="33" t="s">
@@ -3827,13 +3902,13 @@
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -3848,13 +3923,13 @@
       <c r="D9">
         <v>231132213</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -3869,13 +3944,13 @@
       <c r="D10">
         <v>674539430</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -3890,13 +3965,13 @@
       <c r="D11">
         <v>5474859060</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -3911,13 +3986,13 @@
       <c r="D12">
         <v>6485607</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3954,11 +4029,11 @@
       <c r="D1" s="33"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
@@ -4286,27 +4361,27 @@
       <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="N3" s="68"/>
       <c r="O3" s="68"/>
       <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="T4" s="66" t="s">
         <v>185</v>
       </c>
@@ -4318,13 +4393,13 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="T5" s="67"/>
       <c r="U5" t="s">
         <v>188</v>
@@ -4334,13 +4409,13 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="T6" s="67"/>
       <c r="U6" t="s">
         <v>189</v>
@@ -4350,22 +4425,22 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="T8" s="68" t="s">
         <v>186</v>
       </c>
@@ -4378,23 +4453,23 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="T9" s="68"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="U10" s="16" t="s">
         <v>191</v>
       </c>
@@ -4404,58 +4479,58 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4505,12 +4580,12 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="N3" t="s">
         <v>206</v>
       </c>
@@ -4612,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20:T21"/>
     </sheetView>
   </sheetViews>
@@ -4875,10 +4950,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4887,7 +4962,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -4901,7 +4976,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="e">
         <v>#VALUE!</v>
       </c>
@@ -4912,7 +4987,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="e">
         <v>#VALUE!</v>
       </c>
@@ -4924,14 +4999,6 @@
       </c>
       <c r="D3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +5011,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4978,111 +5045,111 @@
       <c r="A3" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="12" t="s">
@@ -6976,10 +7043,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7231,13 +7298,13 @@
         <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" t="str">
         <f>UPPER(D11)</f>
@@ -7271,13 +7338,13 @@
         <f>SUM(F10:M11)</f>
         <v>550</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="83">
         <f>N11/800</f>
         <v>0.6875</v>
       </c>
       <c r="P11" t="str">
-        <f>IF(8&lt;40%,"E",IF(P6&lt;50%,"D",IF(8&lt;60%,"C",IF(P6&lt;80%,"A"))))</f>
-        <v>D</v>
+        <f>IF(O11&lt;40%,"E",IF(O11&lt;50%,"D",IF(O11&lt;60%,"C",IF(O11&lt;70%,"B",IF(O11&lt;80%,"A")))))</f>
+        <v>B</v>
       </c>
       <c r="Q11" t="str">
         <f>IF(11&lt;=50%,"FAIL","PASS")</f>
@@ -7286,16 +7353,16 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
         <v>272</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>273</v>
-      </c>
-      <c r="D12" t="s">
-        <v>274</v>
       </c>
       <c r="E12" t="str">
         <f>UPPER(D12)</f>
@@ -7329,17 +7396,339 @@
         <f>SUM(F12:M12)</f>
         <v>449</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="83">
         <f>N12/800</f>
         <v>0.56125000000000003</v>
       </c>
       <c r="P12" t="str">
-        <f>IF(9&lt;40%,"E",IF(O9&lt;50%,"D",IF(9&lt;60%,"C",IF(9&lt;80%,"A"))))</f>
-        <v>D</v>
+        <f>IF(O12&lt;40%,"E",IF(O12&lt;50%,"D",IF(O12&lt;60%,"C",IF(O12&lt;70%,"B",IF(O12&lt;80%,"A")))))</f>
+        <v>C</v>
       </c>
       <c r="Q12" t="str">
         <f>IF(11&lt;=50%,"FAIL","PASS")</f>
         <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" t="str">
+        <f>UPPER(D13)</f>
+        <v>NO MAMI</v>
+      </c>
+      <c r="F13">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>70</v>
+      </c>
+      <c r="K13">
+        <v>44</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <f>SUM(F13:M13)</f>
+        <v>404</v>
+      </c>
+      <c r="O13" s="83">
+        <f>N13/800</f>
+        <v>0.505</v>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(O13&lt;40%,"E",IF(O13&lt;50%,"D",IF(O13&lt;60%,"C",IF(O13&lt;70%,"B",IF(O13&lt;80%,"A")))))</f>
+        <v>C</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(13&lt;=50%,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" t="str">
+        <f>UPPER(D14)</f>
+        <v>JAN SUBBA</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>56</v>
+      </c>
+      <c r="J14">
+        <v>67</v>
+      </c>
+      <c r="K14">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <v>47</v>
+      </c>
+      <c r="M14">
+        <v>68</v>
+      </c>
+      <c r="N14">
+        <f>SUM(F14:M14)</f>
+        <v>419</v>
+      </c>
+      <c r="O14" s="83">
+        <f>N14/800</f>
+        <v>0.52375000000000005</v>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(O14&lt;40%,"E",IF(O14&lt;60%,"C",IF(O14&lt;70%,"B",IF(O14&lt;80%,"A"))))</f>
+        <v>C</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(O14&lt;=50%,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" t="str">
+        <f>UPPER(D15)</f>
+        <v>FEB LIMBOO</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>58</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>54</v>
+      </c>
+      <c r="K15">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>78</v>
+      </c>
+      <c r="N15">
+        <f>SUM(F15:M15)</f>
+        <v>404</v>
+      </c>
+      <c r="O15" s="83">
+        <f>N15/800</f>
+        <v>0.505</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(O15&lt;=50%,"FAIL","PASS")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" t="str">
+        <f>UPPER(D16)</f>
+        <v>MAR RAI</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>97</v>
+      </c>
+      <c r="H16">
+        <v>78</v>
+      </c>
+      <c r="I16">
+        <v>75</v>
+      </c>
+      <c r="J16">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" t="str">
+        <f>UPPER(D17)</f>
+        <v>APR GURUNG</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>96</v>
+      </c>
+      <c r="J17">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" t="str">
+        <f>UPPER(D18)</f>
+        <v>MAR RAI</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>77</v>
+      </c>
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" t="str">
+        <f>UPPER(D19)</f>
+        <v>JUN RAI</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <v>36</v>
+      </c>
+      <c r="I19">
+        <v>41</v>
+      </c>
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7369,7 +7758,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -7397,7 +7786,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="H3" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -7408,38 +7797,38 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>279</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
@@ -7449,14 +7838,14 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G5" s="17"/>
       <c r="K5" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
@@ -7633,27 +8022,27 @@
       <c r="A3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="36"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="O4">
         <v>123456789</v>
       </c>
@@ -7666,17 +8055,17 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="36"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -7685,16 +8074,16 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="48"/>
+      <c r="A7" s="53"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -7718,7 +8107,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="48"/>
+      <c r="A8" s="53"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -7742,7 +8131,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="48"/>
+      <c r="A9" s="53"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -7751,7 +8140,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="48"/>
+      <c r="A10" s="53"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -7840,20 +8229,20 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="45"/>
       <c r="O16" t="s">
         <v>41</v>
       </c>
@@ -7865,15 +8254,15 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" t="s">
         <v>17</v>
       </c>
@@ -7894,11 +8283,11 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="46"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="F18" t="s">
         <v>18</v>
       </c>
@@ -7919,11 +8308,11 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="46"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" t="s">
         <v>19</v>
       </c>
@@ -8136,6 +8525,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:I5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:E15"/>
@@ -8143,11 +8537,6 @@
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:I5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9007,7 +9396,7 @@
       </c>
       <c r="D7" s="15">
         <f ca="1">NOW()</f>
-        <v>44706.720587384261</v>
+        <v>44706.763309490743</v>
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -9137,11 +9526,11 @@
         <v>106</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="17" t="s">
@@ -9157,9 +9546,9 @@
         <f>SUM(D5:D7)</f>
         <v>71</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" t="s">
@@ -9175,9 +9564,9 @@
         <f>MIN(D5:D10)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" t="s">
@@ -9193,9 +9582,9 @@
         <f>MAX(D5:D10)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" t="s">
@@ -9211,9 +9600,9 @@
         <f>AVERAGE(D5:D10)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="18" t="s">
@@ -9223,9 +9612,9 @@
         <f>COUNT(C5:C10,D5:D10)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12">
       <c r="G9" s="18" t="s">
@@ -9235,9 +9624,9 @@
         <f>COUNTA(C5:C10,D5:D10)</f>
         <v>8</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
@@ -9253,9 +9642,9 @@
         <f>COUNTBLANK(D5:D10)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12">
       <c r="D11">
@@ -9268,9 +9657,9 @@
         <f>SMALL(D5:D10,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12">
       <c r="D12">
